--- a/SecondSemester'sExamSchedule(1402-03).xlsx
+++ b/SecondSemester'sExamSchedule(1402-03).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniversityAffairs\Management\Schedules\برنامه نیمسال دوم03-1402\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A749FE9A-ABF9-43E7-B3EA-09ABD26EC381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDEB606-6F6C-44C2-8B97-EE79CE931FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2076" yWindow="4656" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>برنامه سازی پیشرفته (دکتر فهیمی)</t>
-  </si>
-  <si>
-    <t>ریاضی 2</t>
   </si>
   <si>
     <t>مبانی ترکیبیات</t>
@@ -161,8 +158,18 @@
     <t>مدار منطقی</t>
   </si>
   <si>
+    <t>برنامه سازی پیشرفته (عملی-مهندس شریعتی)</t>
+  </si>
+  <si>
+    <t>مبانی احتمال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معادلات دیفرانسیل
+</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">معادلات دیفرانسیل
+      <t xml:space="preserve">ریاضی 2
 </t>
     </r>
     <r>
@@ -174,12 +181,6 @@
       </rPr>
       <t>شبکه های کامپیوتری (مهندس شریعتی)</t>
     </r>
-  </si>
-  <si>
-    <t>برنامه سازی پیشرفته (عملی-مهندس شریعتی)</t>
-  </si>
-  <si>
-    <t>مبانی احتمال</t>
   </si>
 </sst>
 </file>
@@ -307,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +345,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,7 +633,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -660,10 +664,10 @@
     <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>13</v>
@@ -672,12 +676,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="32.4" x14ac:dyDescent="0.5">
       <c r="A3" s="6"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="7" t="s">
-        <v>18</v>
+      <c r="C3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="2">
         <v>12</v>
@@ -702,7 +708,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>16</v>
@@ -711,11 +717,9 @@
     <row r="6" spans="1:5" ht="32.4" x14ac:dyDescent="0.5">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="7"/>
       <c r="D6" s="19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>17</v>
@@ -724,7 +728,7 @@
     <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7" s="2">
         <v>19</v>
@@ -745,7 +749,7 @@
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>21</v>
@@ -809,7 +813,7 @@
     <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
       <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>17</v>
@@ -820,10 +824,10 @@
     </row>
     <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="2">
         <v>30</v>

--- a/SecondSemester'sExamSchedule(1402-03).xlsx
+++ b/SecondSemester'sExamSchedule(1402-03).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniversityAffairs\Management\Schedules\برنامه نیمسال دوم03-1402\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDEB606-6F6C-44C2-8B97-EE79CE931FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3295C05-E990-477C-B249-0A69BD359CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,12 +266,6 @@
     <font>
       <sz val="10"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="B Nazanin"/>
-      <charset val="178"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B0F0"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
     </font>
@@ -308,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,12 +330,11 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -630,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,10 +672,8 @@
     <row r="3" spans="1:5" ht="32.4" x14ac:dyDescent="0.5">
       <c r="A3" s="6"/>
       <c r="B3" s="9"/>
-      <c r="C3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="20" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="19" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="2">
@@ -718,7 +709,7 @@
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
       <c r="C6" s="7"/>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="2">
@@ -774,18 +765,20 @@
       <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="2">
         <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
       <c r="A12" s="6"/>
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="2">
@@ -804,32 +797,25 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="A14" s="6"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>17</v>
+      </c>
       <c r="E14" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="B15" s="3"/>
       <c r="C15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>17</v>
+        <v>21</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E15" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="C16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="2">
         <v>30</v>
       </c>
     </row>

--- a/SecondSemester'sExamSchedule(1402-03).xlsx
+++ b/SecondSemester'sExamSchedule(1402-03).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniversityAffairs\Management\Schedules\برنامه نیمسال دوم03-1402\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3295C05-E990-477C-B249-0A69BD359CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8340E98B-A595-4A87-B289-3DA7D106B258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>[16-18]</t>
   </si>
@@ -181,6 +181,9 @@
       </rPr>
       <t>شبکه های کامپیوتری (مهندس شریعتی)</t>
     </r>
+  </si>
+  <si>
+    <t>مبانی جمعیت شناسی</t>
   </si>
 </sst>
 </file>
@@ -625,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -721,6 +724,9 @@
       <c r="B7" s="7" t="s">
         <v>25</v>
       </c>
+      <c r="C7" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="E7" s="2">
         <v>19</v>
       </c>

--- a/SecondSemester'sExamSchedule(1402-03).xlsx
+++ b/SecondSemester'sExamSchedule(1402-03).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniversityAffairs\Management\Schedules\برنامه نیمسال دوم03-1402\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8340E98B-A595-4A87-B289-3DA7D106B258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770CB955-A37B-4ECD-B088-89D3D4B64AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,9 +686,7 @@
     <row r="4" spans="1:5" ht="48.6" x14ac:dyDescent="0.5">
       <c r="A4" s="6"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="12" t="s">
-        <v>10</v>
-      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="14" t="s">
         <v>15</v>
       </c>
@@ -711,7 +709,9 @@
     <row r="6" spans="1:5" ht="32.4" x14ac:dyDescent="0.5">
       <c r="A6" s="6"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="7"/>
+      <c r="C6" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="D6" s="18" t="s">
         <v>26</v>
       </c>

--- a/SecondSemester'sExamSchedule(1402-03).xlsx
+++ b/SecondSemester'sExamSchedule(1402-03).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UniversityAffairs\Management\Schedules\برنامه نیمسال دوم03-1402\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770CB955-A37B-4ECD-B088-89D3D4B64AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28899E71-F93D-4B39-BC89-D6365C43260E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,19 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>[16-18]</t>
-  </si>
-  <si>
-    <t>[14-16]</t>
-  </si>
-  <si>
-    <t>[8-10]</t>
-  </si>
-  <si>
-    <t>[10:30-12:30]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>زبان عمومی</t>
   </si>
@@ -185,12 +173,18 @@
   <si>
     <t>مبانی جمعیت شناسی</t>
   </si>
+  <si>
+    <t>ساختمان داده ها و الگوریتم ها</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,6 +277,13 @@
       <color rgb="FFFF0000"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -302,14 +303,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,8 +345,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="12" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -628,200 +637,202 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="3" width="26.21875" customWidth="1"/>
+    <col min="1" max="3" width="26.21875" customWidth="1"/>
     <col min="4" max="4" width="27.6640625" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21">
+        <v>14</v>
+      </c>
+      <c r="B1" s="19">
+        <v>13</v>
+      </c>
+      <c r="C1" s="20">
+        <v>0.4375</v>
+      </c>
+      <c r="D1" s="21">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
+      <c r="A2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="32.4" x14ac:dyDescent="0.5">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="48.6" x14ac:dyDescent="0.5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="32.4" x14ac:dyDescent="0.5">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="32.4" x14ac:dyDescent="0.5">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
+      <c r="A7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
+      <c r="A8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
+      <c r="A10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D10" s="10"/>
+      <c r="E10" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="D11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32.4" x14ac:dyDescent="0.5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="48.6" x14ac:dyDescent="0.5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="32.4" x14ac:dyDescent="0.5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="32.4" x14ac:dyDescent="0.5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="E14" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="2">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.8" x14ac:dyDescent="0.5">
-      <c r="C15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>30</v>
       </c>
     </row>
